--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/15/seed5/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.891499999999996</v>
+        <v>-7.044699999999994</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.53430000000001</v>
+        <v>-21.57630000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.368500000000001</v>
+        <v>-7.463400000000002</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.556099999999997</v>
+        <v>-8.433200000000005</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.69179999999999</v>
+        <v>-21.5824</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.313499999999999</v>
+        <v>-8.359900000000003</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.1975</v>
+        <v>-21.2123</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.288499999999999</v>
+        <v>-8.339199999999998</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.18</v>
+        <v>-20.4658</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.9621</v>
+        <v>-7.900299999999998</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.7079</v>
+        <v>-19.697</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.6526</v>
+        <v>-7.6662</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.78880000000002</v>
+        <v>-21.82790000000001</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.713899999999996</v>
+        <v>-7.6972</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.5755</v>
+        <v>-21.648</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.46270000000001</v>
+        <v>-22.5819</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.1723</v>
+        <v>-22.2437</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.812600000000002</v>
+        <v>-8.756299999999998</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.42369999999997</v>
+        <v>-21.43859999999998</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.55009999999998</v>
+        <v>-21.61039999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.75819999999999</v>
+        <v>-21.79079999999999</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-6.935299999999994</v>
+        <v>-7.070399999999994</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.8214</v>
+        <v>-21.8551</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.347599999999998</v>
+        <v>-8.382199999999997</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-22.02080000000001</v>
+        <v>-22.0165</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.42060000000001</v>
+        <v>-21.45410000000001</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.33139999999999</v>
+        <v>-21.13219999999999</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.12029999999999</v>
+        <v>-20.33749999999998</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.1373</v>
+        <v>-8.051400000000003</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.930499999999999</v>
+        <v>-7.991900000000003</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
